--- a/Database/Helperland_database_schema.xlsx
+++ b/Database/Helperland_database_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Keval\Helperland\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928C14CB-0612-4A6C-B940-1459060D6B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C05D878-F52A-4DD1-91D5-03F833293D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A83C3D9C-259E-4615-8A97-E93BE674B03B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="58">
   <si>
     <t>Helperland</t>
   </si>
@@ -55,9 +55,6 @@
     <t>UserID</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>VARCHAR(50)</t>
   </si>
   <si>
@@ -194,6 +191,21 @@
   </si>
   <si>
     <t>INT(10)</t>
+  </si>
+  <si>
+    <t>Table Name - Payment</t>
+  </si>
+  <si>
+    <t>PaymentID</t>
+  </si>
+  <si>
+    <t>PaymentDate</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
   </si>
 </sst>
 </file>
@@ -328,7 +340,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -337,24 +358,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B60ED29-0FAF-4090-AB6A-6533EE66D015}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,26 +704,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -729,100 +741,100 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>18</v>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="11"/>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
@@ -835,99 +847,99 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>18</v>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="11"/>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
@@ -940,167 +952,167 @@
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="11" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="11"/>
+      <c r="C37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
+      <c r="D39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="11"/>
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1118,109 +1130,109 @@
         <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>18</v>
+      <c r="B47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="11"/>
+      <c r="C48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11" t="s">
+      <c r="C50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="11"/>
+      <c r="C53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1238,42 +1250,42 @@
         <v>3</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="10"/>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1291,84 +1303,166 @@
         <v>3</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="D67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="12"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="12" t="s">
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="12"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="12"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="13"/>
+      <c r="C79" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A72:E72"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A62:E62"/>
